--- a/image/subscription.xlsx
+++ b/image/subscription.xlsx
@@ -686,43 +686,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.37109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="51.1328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="51.421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="59.25390625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="56.3984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="59.63671875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="55.75" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/subscription.xlsx
+++ b/image/subscription.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="219">
   <si>
     <t>Path</t>
   </si>
@@ -141,10 +141,10 @@
     <t/>
   </si>
   <si>
-    <t>Server push subscription criteria</t>
-  </si>
-  <si>
-    <t>The subscription resource is used to define a push-based subscription from a server to another system. Once a subscription is registered with the server, the server checks every resource that is created or updated, and if the resource matches the given criteria, it sends a message on the defined "channel" so that another system can take an appropriate action.</t>
+    <t>Notification about a Topic</t>
+  </si>
+  <si>
+    <t>The subscription resource describes a particular client's request to be notified about a Topic.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
@@ -163,7 +163,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -330,6 +330,31 @@
     <t>DomainResource.modifierExtension</t>
   </si>
   <si>
+    <t>Subscription.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Additional identifiers (business identifier)</t>
+  </si>
+  <si>
+    <t>A formal identifier that is used to identify this code system when it is represented in other formats, or referenced in a specification, model, design or an instance.</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Subscription.name</t>
+  </si>
+  <si>
+    <t>Human readable name for this subscription</t>
+  </si>
+  <si>
+    <t>A natural language name identifying the subscription.</t>
+  </si>
+  <si>
     <t>Subscription.status</t>
   </si>
   <si>
@@ -355,6 +380,22 @@
     <t>FiveWs.status</t>
   </si>
   <si>
+    <t>Subscription.topic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Topic)
+</t>
+  </si>
+  <si>
+    <t>Reference to the topic being subscribed to</t>
+  </si>
+  <si>
+    <t>The reference to the topic to be notified about.</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
     <t>Subscription.contact</t>
   </si>
   <si>
@@ -393,10 +434,6 @@
     <t>Subscription.reason</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
     <t>Description of why this subscription was created</t>
   </si>
   <si>
@@ -406,45 +443,24 @@
     <t>FiveWs.why[x]</t>
   </si>
   <si>
-    <t>Subscription.criteria</t>
-  </si>
-  <si>
-    <t>Rule for server push</t>
-  </si>
-  <si>
-    <t>The rules that the server should use to determine when to generate notifications for this subscription.</t>
-  </si>
-  <si>
-    <t>The rules are search criteria (without the [base] part). Like Bundle.entry.request.url, it has no leading "/".</t>
-  </si>
-  <si>
-    <t>Subscription.error</t>
-  </si>
-  <si>
-    <t>Latest error note</t>
-  </si>
-  <si>
-    <t>A record of the last error that occurred when the server processed a notification.</t>
-  </si>
-  <si>
-    <t>Subscription.channel</t>
+    <t>Subscription.filterBy</t>
   </si>
   <si>
     <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
-    <t>The channel on which to report matches to the criteria</t>
-  </si>
-  <si>
-    <t>Details where to send notifications when resources are received that meet the criteria.</t>
+    <t>Criteria for narrowing the topic stream</t>
+  </si>
+  <si>
+    <t>The filter properties to be applied to narrow the topic stream.  When multiple filters are applied, evaluates to true if all the conditions are met; otherwise it returns false.   (i.e., logical AND).</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
-    <t>Subscription.channel.id</t>
+    <t>Subscription.filterBy.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -459,7 +475,7 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>Subscription.channel.extension</t>
+    <t>Subscription.filterBy.extension</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
@@ -468,7 +484,7 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>Subscription.channel.modifierExtension</t>
+    <t>Subscription.filterBy.modifierExtension</t>
   </si>
   <si>
     <t>extensions
@@ -485,6 +501,95 @@
     <t>BackboneElement.modifierExtension</t>
   </si>
   <si>
+    <t>Subscription.filterBy.name</t>
+  </si>
+  <si>
+    <t>Filter label defined in Topic</t>
+  </si>
+  <si>
+    <t>The filter label (=key) as defined in the `Topic.canFilterBy.name`  element.</t>
+  </si>
+  <si>
+    <t>Subscription.filterBy.matchType</t>
+  </si>
+  <si>
+    <t>= | in | not-in | above | below</t>
+  </si>
+  <si>
+    <t>The operator to apply to the filter value when determining matches (Search modifiers).</t>
+  </si>
+  <si>
+    <t>Operator to apply to filter label.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/subscription-operator|4.1.0</t>
+  </si>
+  <si>
+    <t>Subscription.filterBy.value</t>
+  </si>
+  <si>
+    <t>Literal value or resource path</t>
+  </si>
+  <si>
+    <t>The literal value or resource path as is legal in search - for example, "Patient/123" or "le1950".</t>
+  </si>
+  <si>
+    <t>Subscription.error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Latest error code or note</t>
+  </si>
+  <si>
+    <t>A record of the last error that occurred when the server processed a notification.</t>
+  </si>
+  <si>
+    <t>Recommended practice: If available, convey the HTTP error in an adjacent Coding or in text.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes to represent subscription error details.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/subscription-error</t>
+  </si>
+  <si>
+    <t>Subscription.eventCount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unsignedInt
+</t>
+  </si>
+  <si>
+    <t>Notification event counter</t>
+  </si>
+  <si>
+    <t>A record of  the number of events for which the server has attempted delivery on this subscription (i.e., the number of events that occurred while the subscription is in an "active" or "error" state -- not "requested" or "off").   Server Initializes to 0 for a new subscription.  Repeated attempts at delivery of the *same* event notification do not increment this counter.</t>
+  </si>
+  <si>
+    <t>Subscription.channel</t>
+  </si>
+  <si>
+    <t>The channel on which to report matches to the criteria</t>
+  </si>
+  <si>
+    <t>Details where to send notifications when resources are received that meet the criteria.</t>
+  </si>
+  <si>
+    <t>Subscription.channel.id</t>
+  </si>
+  <si>
+    <t>Subscription.channel.extension</t>
+  </si>
+  <si>
+    <t>Subscription.channel.modifierExtension</t>
+  </si>
+  <si>
     <t>Subscription.channel.type</t>
   </si>
   <si>
@@ -494,10 +599,13 @@
     <t>The type of channel to send notifications on.</t>
   </si>
   <si>
+    <t>extensible</t>
+  </si>
+  <si>
     <t>The type of method used to execute a subscription.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/subscription-channel-type|4.1.0</t>
+    <t>http://hl7.org/fhir/ValueSet/subscription-channel-type</t>
   </si>
   <si>
     <t>Subscription.channel.endpoint</t>
@@ -516,34 +624,76 @@
     <t>For rest-hook, and websocket, the end-point must be an http: or https: URL; for email, a mailto: url, for sms, a tel: url, and for message the endpoint can be in any form of url the server understands (usually, http: or mllp:). The URI is allowed to be relative; in which case, it is relative to the server end-point (since there may be more than one, clients should avoid using relative URIs).</t>
   </si>
   <si>
+    <t>Subscription.channel.header</t>
+  </si>
+  <si>
+    <t>Usage depends on the channel type</t>
+  </si>
+  <si>
+    <t>Additional headers / information to send as part of the notification.</t>
+  </si>
+  <si>
+    <t>Exactly what these mean depend on the channel type. They can convey additional information to the recipient and/or meet security requirements; for example, support of multiple headers in the outgoing notifications for rest-hook type subscriptions.</t>
+  </si>
+  <si>
+    <t>Subscription.channel.heartbeatPeriod</t>
+  </si>
+  <si>
+    <t>Interval in seconds to send 'heartbeat' notification</t>
+  </si>
+  <si>
+    <t>If present,  a 'hearbeat" notification (keepalive) is sent via this channel with an the interval period equal to this elements integer value in seconds.    If not present, a heartbeat notification is not sent.</t>
+  </si>
+  <si>
     <t>Subscription.channel.payload</t>
   </si>
   <si>
+    <t>Payload definition</t>
+  </si>
+  <si>
+    <t>The payload mimetype and content.  If the payload is not present, then there is no payload in the notification, just a notification.</t>
+  </si>
+  <si>
+    <t>Subscription.channel.payload.id</t>
+  </si>
+  <si>
+    <t>Subscription.channel.payload.extension</t>
+  </si>
+  <si>
+    <t>Subscription.channel.payload.modifierExtension</t>
+  </si>
+  <si>
+    <t>Subscription.channel.payload.contentType</t>
+  </si>
+  <si>
     <t>MIME type to send, or omit for no payload</t>
   </si>
   <si>
-    <t>The mime type to send the payload in - either application/fhir+xml, or application/fhir+json. If the payload is not present, then there is no payload in the notification, just a notification. The mime type "text/plain" may also be used for Email and SMS subscriptions.</t>
+    <t>The mime type to send the payload in - either application/fhir+xml, or application/fhir+json. The mime type "text/plain" may also be used for Email and SMS subscriptions.</t>
+  </si>
+  <si>
+    <t>The mime type of an attachment. Any valid mime type is allowed.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/mimetypes|4.1.0</t>
+  </si>
+  <si>
+    <t>Subscription.channel.payload.content</t>
+  </si>
+  <si>
+    <t>empty | id-only | full-resource</t>
+  </si>
+  <si>
+    <t>How much of the resource content to deliver in the notification payload. The choices are an empty payload, only the resource id, or the full resource content.</t>
   </si>
   <si>
     <t>Sending the payload has obvious security implications. The server is responsible for ensuring that the content is appropriately secured.</t>
   </si>
   <si>
-    <t>The mime type of an attachment. Any valid mime type is allowed.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/mimetypes|4.1.0</t>
-  </si>
-  <si>
-    <t>Subscription.channel.header</t>
-  </si>
-  <si>
-    <t>Usage depends on the channel type</t>
-  </si>
-  <si>
-    <t>Additional headers / information to send as part of the notification.</t>
-  </si>
-  <si>
-    <t>Exactly what these mean depend on the channel type. They can convey additional information to the recipient and/or meet security requirements; for example, support of multiple headers in the outgoing notifications for rest-hook type subscriptions.</t>
+    <t>Codes to represent how much resource content to send in the notification payload.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/subscription-payload-content|4.1.0</t>
   </si>
 </sst>
 </file>
@@ -677,7 +827,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK24"/>
+  <dimension ref="A1:AK40"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -686,43 +836,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="36.609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.8984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="51.421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="51.1328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="59.63671875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="55.75" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="75.02734375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="59.34375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="38.73828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.671875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="33.046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1791,32 +1941,30 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>48</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="M11" t="s" s="2">
         <v>104</v>
       </c>
+      <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>41</v>
@@ -1841,13 +1989,13 @@
         <v>41</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>41</v>
@@ -1868,10 +2016,10 @@
         <v>101</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>41</v>
@@ -1883,12 +2031,12 @@
         <v>41</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1899,7 +2047,7 @@
         <v>39</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>41</v>
@@ -1911,13 +2059,13 @@
         <v>48</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1968,13 +2116,13 @@
         <v>41</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>41</v>
@@ -1986,12 +2134,12 @@
         <v>41</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>113</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1999,7 +2147,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>47</v>
@@ -2008,22 +2156,22 @@
         <v>41</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>48</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2049,13 +2197,13 @@
         <v>41</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>41</v>
+        <v>114</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>41</v>
@@ -2073,10 +2221,10 @@
         <v>41</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>47</v>
@@ -2091,12 +2239,12 @@
         <v>41</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2119,13 +2267,13 @@
         <v>48</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2176,7 +2324,7 @@
         <v>41</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>47</v>
@@ -2194,12 +2342,12 @@
         <v>41</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2207,10 +2355,10 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>41</v>
@@ -2222,17 +2370,15 @@
         <v>48</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>128</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>41</v>
@@ -2281,13 +2427,13 @@
         <v>41</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>41</v>
@@ -2299,12 +2445,12 @@
         <v>41</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>41</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2327,15 +2473,17 @@
         <v>48</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>41</v>
@@ -2384,7 +2532,7 @@
         <v>41</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>39</v>
@@ -2402,12 +2550,12 @@
         <v>41</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>41</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2430,7 +2578,7 @@
         <v>48</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>133</v>
+        <v>49</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>134</v>
@@ -2487,7 +2635,7 @@
         <v>41</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>47</v>
@@ -2499,13 +2647,13 @@
         <v>41</v>
       </c>
       <c r="AI17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>41</v>
       </c>
     </row>
     <row r="18">
@@ -2521,7 +2669,7 @@
         <v>39</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>41</v>
@@ -2530,16 +2678,16 @@
         <v>41</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2590,22 +2738,22 @@
         <v>41</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>141</v>
+        <v>41</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>41</v>
@@ -2617,14 +2765,14 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>41</v>
@@ -2636,17 +2784,15 @@
         <v>41</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>94</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>41</v>
@@ -2695,13 +2841,13 @@
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>41</v>
@@ -2710,7 +2856,7 @@
         <v>41</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>41</v>
@@ -2718,11 +2864,11 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>146</v>
+        <v>90</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -2735,16 +2881,16 @@
         <v>41</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>147</v>
+        <v>92</v>
       </c>
       <c r="L20" t="s" s="2">
         <v>148</v>
@@ -2752,9 +2898,7 @@
       <c r="M20" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="N20" t="s" s="2">
-        <v>99</v>
-      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>41</v>
       </c>
@@ -2817,7 +2961,7 @@
         <v>41</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>41</v>
@@ -2829,35 +2973,39 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>48</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>41</v>
       </c>
@@ -2881,37 +3029,37 @@
         <v>41</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>153</v>
+        <v>41</v>
       </c>
       <c r="Y21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE21" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="Z21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>150</v>
-      </c>
       <c r="AF21" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>41</v>
@@ -2920,7 +3068,7 @@
         <v>41</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>41</v>
@@ -2936,7 +3084,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>47</v>
@@ -2951,17 +3099,15 @@
         <v>48</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="L22" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>159</v>
-      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>41</v>
@@ -3013,7 +3159,7 @@
         <v>155</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>47</v>
@@ -3033,7 +3179,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3059,14 +3205,12 @@
         <v>66</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>41</v>
@@ -3091,13 +3235,13 @@
         <v>41</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>41</v>
@@ -3115,7 +3259,7 @@
         <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>39</v>
@@ -3138,7 +3282,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3146,10 +3290,10 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>41</v>
@@ -3161,17 +3305,15 @@
         <v>48</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>41</v>
@@ -3220,24 +3362,1692 @@
         <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="AF24" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG24" t="s" s="2">
+      <c r="B25" s="2"/>
+      <c r="C25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F25" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="AH24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK24" t="s" s="2">
+      <c r="G25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P25" s="2"/>
+      <c r="Q25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P26" s="2"/>
+      <c r="Q26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P27" s="2"/>
+      <c r="Q27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P28" s="2"/>
+      <c r="Q28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P29" s="2"/>
+      <c r="Q29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P30" s="2"/>
+      <c r="Q30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P31" s="2"/>
+      <c r="Q31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P32" s="2"/>
+      <c r="Q32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P33" s="2"/>
+      <c r="Q33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="Q34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>41</v>
       </c>
     </row>
